--- a/Godlibrary/Excel/data_status.xlsx
+++ b/Godlibrary/Excel/data_status.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\islay\Google ドライブ\52prj\end\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Godlibrary\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1953,7 +1953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2057,6 +2057,27 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2214,7 +2235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2291,6 +2312,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2740,42 +2776,42 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="27" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2818,22 +2854,22 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="27" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2898,22 +2934,22 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="27" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2974,42 +3010,42 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="27" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="27" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3054,22 +3090,22 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3092,22 +3128,22 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3132,22 +3168,22 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="27" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3210,22 +3246,22 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="27" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3408,17 +3444,17 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
         <v>200</v>
       </c>
     </row>
